--- a/public/media/Metadata.xlsx
+++ b/public/media/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/orlando_joaqui_correounivalle_edu_co/Documents/Investigacion/Jota/Direccion_Tesis/Braian_Carolina/Resultados finales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/orlando_joaqui_correounivalle_edu_co/Documents/my-website/static/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7ADC605D-F00C-41BA-9D5C-3B93BE59C17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0484EBB6-70B0-4663-823D-1F6FC649BBA5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7ADC605D-F00C-41BA-9D5C-3B93BE59C17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9717AA-F27C-4AE0-AED6-2793127FC5E6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="599" xr2:uid="{B3AF5DE4-8D28-4984-939D-3992DF05B6AE}"/>
   </bookViews>
@@ -423,27 +423,12 @@
     <t>aCORSLSM/C</t>
   </si>
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
-    <t>FUENTE</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>SUBGRUPO</t>
-  </si>
-  <si>
     <t>Cyclical and activities indices</t>
   </si>
   <si>
     <t>SURVERYS AND FORESCAST</t>
   </si>
   <si>
-    <t>INDICADOR</t>
-  </si>
-  <si>
     <t>DANE - The National Administrative Department of Statistics, Colombia</t>
   </si>
   <si>
@@ -1057,6 +1042,21 @@
   </si>
   <si>
     <t>Colombia Retail Sales, Without vehicles, Constant Prices, Chg Y/Y</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>SubGroup</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -1168,11 +1168,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FF192F0-8702-48ED-9805-483ED8922525}" name="Tabla1" displayName="Tabla1" ref="A1:E154" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E154" xr:uid="{029302F7-AB01-4BE9-B0B4-7E8CCA068879}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E43C234-8F35-4B9F-9D55-E7BC0499AEA4}" name="CÓDIGO" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{91C6EA30-3E12-4FAE-AEAC-0E972DCC53F4}" name="INDICADOR"/>
-    <tableColumn id="3" xr3:uid="{DDECC174-499F-4A9F-88DD-287E5B13C4D2}" name="GRUPO"/>
-    <tableColumn id="4" xr3:uid="{8B302495-2936-4BBD-929E-392B620C3D07}" name="SUBGRUPO"/>
-    <tableColumn id="5" xr3:uid="{283BE0CD-0E4B-464C-A4F0-553792CB9F46}" name="FUENTE"/>
+    <tableColumn id="1" xr3:uid="{7E43C234-8F35-4B9F-9D55-E7BC0499AEA4}" name="Cod" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{91C6EA30-3E12-4FAE-AEAC-0E972DCC53F4}" name="Indicator"/>
+    <tableColumn id="3" xr3:uid="{DDECC174-499F-4A9F-88DD-287E5B13C4D2}" name="Group"/>
+    <tableColumn id="4" xr3:uid="{8B302495-2936-4BBD-929E-392B620C3D07}" name="SubGroup"/>
+    <tableColumn id="5" xr3:uid="{283BE0CD-0E4B-464C-A4F0-553792CB9F46}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1467,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1477,9 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A944AFD6-D791-4E67-9F96-F85632414ACA}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1492,70 +1490,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1563,16 +1561,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1580,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1597,156 +1595,156 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1754,27 +1752,27 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1782,27 +1780,27 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1810,27 +1808,27 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1838,27 +1836,27 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1866,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1880,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1894,13 +1892,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -1908,13 +1906,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1922,13 +1920,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -1936,13 +1934,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -1950,13 +1948,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -1964,13 +1962,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -1978,13 +1976,13 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1992,13 +1990,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -2006,13 +2004,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -2020,13 +2018,13 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -2034,13 +2032,13 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -2048,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -2062,13 +2060,13 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -2076,13 +2074,13 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -2090,13 +2088,13 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -2104,13 +2102,13 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -2118,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -2132,13 +2130,13 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -2146,13 +2144,13 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -2160,13 +2158,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -2174,13 +2172,13 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -2188,13 +2186,13 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -2202,13 +2200,13 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -2216,16 +2214,16 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -2233,16 +2231,16 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -2250,16 +2248,16 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" t="s">
         <v>216</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -2267,33 +2265,33 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
         <v>216</v>
-      </c>
-      <c r="D54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
         <v>219</v>
-      </c>
-      <c r="E55" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -2301,16 +2299,16 @@
         <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -2318,16 +2316,16 @@
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -2335,16 +2333,16 @@
         <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -2352,16 +2350,16 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -2369,16 +2367,16 @@
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -2386,16 +2384,16 @@
         <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -2403,16 +2401,16 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -2420,16 +2418,16 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -2437,16 +2435,16 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -2454,16 +2452,16 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -2471,16 +2469,16 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -2488,16 +2486,16 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -2505,16 +2503,16 @@
         <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -2522,16 +2520,16 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
         <v>238</v>
-      </c>
-      <c r="E69" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -2539,16 +2537,16 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" t="s">
         <v>238</v>
-      </c>
-      <c r="E70" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -2556,16 +2554,16 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
         <v>238</v>
-      </c>
-      <c r="E71" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -2573,16 +2571,16 @@
         <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
         <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -2590,16 +2588,16 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
         <v>238</v>
-      </c>
-      <c r="E73" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -2607,16 +2605,16 @@
         <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
         <v>238</v>
-      </c>
-      <c r="E74" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -2624,16 +2622,16 @@
         <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
         <v>238</v>
-      </c>
-      <c r="E75" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -2641,16 +2639,16 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -2658,16 +2656,16 @@
         <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -2675,16 +2673,16 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -2692,33 +2690,33 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -2726,16 +2724,16 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -2743,16 +2741,16 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -2760,16 +2758,16 @@
         <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -2777,16 +2775,16 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -2794,16 +2792,16 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -2811,16 +2809,16 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -2828,16 +2826,16 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
@@ -2845,16 +2843,16 @@
         <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -2862,16 +2860,16 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -2879,16 +2877,16 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -2896,16 +2894,16 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E91" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -2913,16 +2911,16 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -2930,16 +2928,16 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
@@ -2947,16 +2945,16 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E94" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -2964,16 +2962,16 @@
         <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -2981,16 +2979,16 @@
         <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -2998,16 +2996,16 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -3015,16 +3013,16 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -3032,16 +3030,16 @@
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -3049,16 +3047,16 @@
         <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -3066,16 +3064,16 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D101" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -3083,16 +3081,16 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D102" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -3100,16 +3098,16 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -3117,16 +3115,16 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
@@ -3134,16 +3132,16 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -3151,16 +3149,16 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -3168,16 +3166,16 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C107" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -3185,16 +3183,16 @@
         <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -3202,16 +3200,16 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -3219,16 +3217,16 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -3236,16 +3234,16 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E111" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -3253,16 +3251,16 @@
         <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D112" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E112" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -3270,16 +3268,16 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E113" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -3287,16 +3285,16 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -3304,16 +3302,16 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E115" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -3321,16 +3319,16 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E116" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
@@ -3338,16 +3336,16 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D117" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
@@ -3355,16 +3353,16 @@
         <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E118" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -3372,16 +3370,16 @@
         <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
@@ -3389,16 +3387,16 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E120" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
@@ -3406,16 +3404,16 @@
         <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E121" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
@@ -3423,16 +3421,16 @@
         <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D122" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E122" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
@@ -3440,16 +3438,16 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D123" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
@@ -3457,16 +3455,16 @@
         <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C124" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D124" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
@@ -3474,16 +3472,16 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D125" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E125" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
@@ -3491,16 +3489,16 @@
         <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C126" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E126" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
@@ -3508,16 +3506,16 @@
         <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D127" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E127" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
@@ -3525,16 +3523,16 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E128" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -3542,16 +3540,16 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D129" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E129" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -3559,16 +3557,16 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E130" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -3576,16 +3574,16 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C131" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E131" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
@@ -3593,16 +3591,16 @@
         <v>111</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D132" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -3610,16 +3608,16 @@
         <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D133" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
@@ -3627,16 +3625,16 @@
         <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D134" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E134" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -3644,16 +3642,16 @@
         <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
@@ -3661,16 +3659,16 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C136" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D136" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -3678,16 +3676,16 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D137" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E137" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -3695,16 +3693,16 @@
         <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E138" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -3712,16 +3710,16 @@
         <v>118</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C139" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -3729,16 +3727,16 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D140" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -3746,16 +3744,16 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D141" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E141" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -3763,16 +3761,16 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D142" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E142" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
@@ -3780,16 +3778,16 @@
         <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C143" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D143" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E143" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -3797,16 +3795,16 @@
         <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D144" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E144" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -3814,16 +3812,16 @@
         <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C145" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D145" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
@@ -3831,16 +3829,16 @@
         <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D146" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E146" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -3848,16 +3846,16 @@
         <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D147" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E147" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -3865,16 +3863,16 @@
         <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E148" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
@@ -3882,33 +3880,33 @@
         <v>128</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E149" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D150" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E150" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
@@ -3916,33 +3914,33 @@
         <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E151" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C152" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E152" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -3950,16 +3948,16 @@
         <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C153" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D153" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E153" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
@@ -3967,16 +3965,16 @@
         <v>131</v>
       </c>
       <c r="B154" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C154" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D154" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E154" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
